--- a/output/GROWLER_18489908000176.xlsx
+++ b/output/GROWLER_18489908000176.xlsx
@@ -1362,10 +1362,10 @@
         <v>44165</v>
       </c>
       <c r="B89">
-        <v>1.2279162</v>
+        <v>1.2274936</v>
       </c>
       <c r="C89">
-        <v>0.002061139183071825</v>
+        <v>0.001871064243350595</v>
       </c>
     </row>
   </sheetData>

--- a/output/GROWLER_18489908000176.xlsx
+++ b/output/GROWLER_18489908000176.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GROWLER FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,986 +383,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41517</v>
       </c>
       <c r="B2">
-        <v>0.003191500000000014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41547</v>
       </c>
       <c r="B3">
-        <v>-0.02054999999999996</v>
-      </c>
-      <c r="C3">
         <v>-0.02366597005656446</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41578</v>
       </c>
       <c r="B4">
-        <v>-0.03553329999999999</v>
-      </c>
-      <c r="C4">
         <v>-0.01529766705804281</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41608</v>
       </c>
       <c r="B5">
-        <v>-0.006422700000000003</v>
-      </c>
-      <c r="C5">
         <v>0.03018310533686641</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41639</v>
       </c>
       <c r="B6">
-        <v>0.01271409999999995</v>
-      </c>
-      <c r="C6">
         <v>0.01926050444187877</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41670</v>
       </c>
       <c r="B7">
-        <v>0.0251056999999999</v>
-      </c>
-      <c r="C7">
         <v>0.01223602989234562</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41698</v>
       </c>
       <c r="B8">
-        <v>0.02464679999999997</v>
-      </c>
-      <c r="C8">
         <v>-0.0004476611533814623</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41729</v>
       </c>
       <c r="B9">
-        <v>0.02602140000000008</v>
-      </c>
-      <c r="C9">
         <v>0.001341535444213671</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41759</v>
       </c>
       <c r="B10">
-        <v>0.02308960000000004</v>
-      </c>
-      <c r="C10">
         <v>-0.00285744527355869</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41790</v>
       </c>
       <c r="B11">
-        <v>0.0188820999999999</v>
-      </c>
-      <c r="C11">
         <v>-0.004112543026534632</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41820</v>
       </c>
       <c r="B12">
-        <v>0.0262621999999999</v>
-      </c>
-      <c r="C12">
         <v>0.007243330705289708</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41851</v>
       </c>
       <c r="B13">
-        <v>0.0342245000000001</v>
-      </c>
-      <c r="C13">
         <v>0.007758543576875665</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41882</v>
       </c>
       <c r="B14">
-        <v>0.0300864999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.004001065532677095</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41912</v>
       </c>
       <c r="B15">
-        <v>0.05365569999999997</v>
-      </c>
-      <c r="C15">
         <v>0.02288079690394951</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41943</v>
       </c>
       <c r="B16">
-        <v>0.04806120000000003</v>
-      </c>
-      <c r="C16">
         <v>-0.005309609201563648</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41973</v>
       </c>
       <c r="B17">
-        <v>0.06936969999999998</v>
-      </c>
-      <c r="C17">
         <v>0.02033135087912807</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42004</v>
       </c>
       <c r="B18">
-        <v>0.06034889999999993</v>
-      </c>
-      <c r="C18">
         <v>-0.008435623339617782</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42035</v>
       </c>
       <c r="B19">
-        <v>0.0872309</v>
-      </c>
-      <c r="C19">
         <v>0.02535203271300612</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42063</v>
       </c>
       <c r="B20">
-        <v>0.1090914000000001</v>
-      </c>
-      <c r="C20">
         <v>0.02010658453507896</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42094</v>
       </c>
       <c r="B21">
-        <v>0.1641284000000001</v>
-      </c>
-      <c r="C21">
         <v>0.04962350262566284</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42124</v>
       </c>
       <c r="B22">
-        <v>0.1459607000000001</v>
-      </c>
-      <c r="C22">
         <v>-0.01560626817454158</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42155</v>
       </c>
       <c r="B23">
-        <v>0.1772828</v>
-      </c>
-      <c r="C23">
         <v>0.02733261271525267</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42185</v>
       </c>
       <c r="B24">
-        <v>0.1879512999999999</v>
-      </c>
-      <c r="C24">
         <v>0.009061968797981157</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42216</v>
       </c>
       <c r="B25">
-        <v>0.2513346000000001</v>
-      </c>
-      <c r="C25">
         <v>0.0533551333291189</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42247</v>
       </c>
       <c r="B26">
-        <v>0.2738187000000001</v>
-      </c>
-      <c r="C26">
         <v>0.01796809582345116</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42277</v>
       </c>
       <c r="B27">
-        <v>0.2940357</v>
-      </c>
-      <c r="C27">
         <v>0.01587117538783178</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42308</v>
       </c>
       <c r="B28">
-        <v>0.3009653999999999</v>
-      </c>
-      <c r="C28">
         <v>0.005355107281816096</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42338</v>
       </c>
       <c r="B29">
-        <v>0.3265070000000001</v>
-      </c>
-      <c r="C29">
         <v>0.0196328049923542</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42369</v>
       </c>
       <c r="B30">
-        <v>0.3456973999999999</v>
-      </c>
-      <c r="C30">
         <v>0.01446686674099706</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42400</v>
       </c>
       <c r="B31">
-        <v>0.3888315</v>
-      </c>
-      <c r="C31">
         <v>0.03205334275001204</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42429</v>
       </c>
       <c r="B32">
-        <v>0.3987271999999999</v>
-      </c>
-      <c r="C32">
         <v>0.007125198413198364</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42460</v>
       </c>
       <c r="B33">
-        <v>0.3543802</v>
-      </c>
-      <c r="C33">
         <v>-0.03170525317588724</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42490</v>
       </c>
       <c r="B34">
-        <v>0.4017653999999999</v>
-      </c>
-      <c r="C34">
         <v>0.03498663078506303</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42521</v>
       </c>
       <c r="B35">
-        <v>0.4268373999999999</v>
-      </c>
-      <c r="C35">
         <v>0.01788601716093141</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42551</v>
       </c>
       <c r="B36">
-        <v>0.4257172</v>
-      </c>
-      <c r="C36">
         <v>-0.0007850929615385027</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42582</v>
       </c>
       <c r="B37">
-        <v>0.4307322</v>
-      </c>
-      <c r="C37">
         <v>0.003517527880003035</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42613</v>
       </c>
       <c r="B38">
-        <v>0.466278</v>
-      </c>
-      <c r="C38">
         <v>0.02484448172760767</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42643</v>
       </c>
       <c r="B39">
-        <v>0.4992698</v>
-      </c>
-      <c r="C39">
         <v>0.02250037168940677</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42674</v>
       </c>
       <c r="B40">
-        <v>0.5408993</v>
-      </c>
-      <c r="C40">
         <v>0.02776651674034913</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42704</v>
       </c>
       <c r="B41">
-        <v>0.5713843999999999</v>
-      </c>
-      <c r="C41">
         <v>0.01978396641493707</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42735</v>
       </c>
       <c r="B42">
-        <v>0.6024843</v>
-      </c>
-      <c r="C42">
         <v>0.0197914017728571</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42766</v>
       </c>
       <c r="B43">
-        <v>0.6454918999999999</v>
-      </c>
-      <c r="C43">
         <v>0.02683807885044476</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42794</v>
       </c>
       <c r="B44">
-        <v>0.6614028999999999</v>
-      </c>
-      <c r="C44">
         <v>0.009669448995768493</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42825</v>
       </c>
       <c r="B45">
-        <v>0.6928957</v>
-      </c>
-      <c r="C45">
         <v>0.01895554654442955</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42855</v>
       </c>
       <c r="B46">
-        <v>0.6905433000000001</v>
-      </c>
-      <c r="C46">
         <v>-0.001389571726125749</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42886</v>
       </c>
       <c r="B47">
-        <v>0.7074682000000001</v>
-      </c>
-      <c r="C47">
         <v>0.01001151523300225</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42916</v>
       </c>
       <c r="B48">
-        <v>0.7300409999999999</v>
-      </c>
-      <c r="C48">
         <v>0.01322004122829346</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42947</v>
       </c>
       <c r="B49">
-        <v>0.7791691000000001</v>
-      </c>
-      <c r="C49">
         <v>0.02839707267053226</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42978</v>
       </c>
       <c r="B50">
-        <v>0.7867662</v>
-      </c>
-      <c r="C50">
         <v>0.004270026946848304</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43008</v>
       </c>
       <c r="B51">
-        <v>0.8287468</v>
-      </c>
-      <c r="C51">
         <v>0.02349529557924246</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43039</v>
       </c>
       <c r="B52">
-        <v>0.8227655</v>
-      </c>
-      <c r="C52">
         <v>-0.003270709755992418</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43069</v>
       </c>
       <c r="B53">
-        <v>0.8418000999999999</v>
-      </c>
-      <c r="C53">
         <v>0.01044270368294775</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43100</v>
       </c>
       <c r="B54">
-        <v>0.8656664999999999</v>
-      </c>
-      <c r="C54">
         <v>0.01295819236843343</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43131</v>
       </c>
       <c r="B55">
-        <v>0.9407649</v>
-      </c>
-      <c r="C55">
         <v>0.04025285333686379</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43159</v>
       </c>
       <c r="B56">
-        <v>0.9443621</v>
-      </c>
-      <c r="C56">
         <v>0.001853496010773892</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43190</v>
       </c>
       <c r="B57">
-        <v>0.9517533</v>
-      </c>
-      <c r="C57">
         <v>0.003801349553151701</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43220</v>
       </c>
       <c r="B58">
-        <v>0.9733111999999999</v>
-      </c>
-      <c r="C58">
         <v>0.01104540210076754</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43251</v>
       </c>
       <c r="B59">
-        <v>0.9616663999999999</v>
-      </c>
-      <c r="C59">
         <v>-0.005901147269624762</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43281</v>
       </c>
       <c r="B60">
-        <v>1.0057674</v>
-      </c>
-      <c r="C60">
         <v>0.02248139642907687</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43312</v>
       </c>
       <c r="B61">
-        <v>0.9978359000000001</v>
-      </c>
-      <c r="C61">
         <v>-0.003954346849988521</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43343</v>
       </c>
       <c r="B62">
-        <v>1.0400251</v>
-      </c>
-      <c r="C62">
         <v>0.02111745013692046</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43373</v>
       </c>
       <c r="B63">
-        <v>1.0604592</v>
-      </c>
-      <c r="C63">
         <v>0.01001659244290676</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43404</v>
       </c>
       <c r="B64">
-        <v>1.0483041</v>
-      </c>
-      <c r="C64">
         <v>-0.005899218970217834</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43434</v>
       </c>
       <c r="B65">
-        <v>0.9952801</v>
-      </c>
-      <c r="C65">
         <v>-0.02588678116691767</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43465</v>
       </c>
       <c r="B66">
-        <v>0.932321</v>
-      </c>
-      <c r="C66">
         <v>-0.03155401589982276</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43496</v>
       </c>
       <c r="B67">
-        <v>0.9525733000000001</v>
-      </c>
-      <c r="C67">
         <v>0.01048081555807756</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43524</v>
       </c>
       <c r="B68">
-        <v>0.9572904</v>
-      </c>
-      <c r="C68">
         <v>0.00241583760261399</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43555</v>
       </c>
       <c r="B69">
-        <v>0.971201</v>
-      </c>
-      <c r="C69">
         <v>0.007107070059711118</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43585</v>
       </c>
       <c r="B70">
-        <v>0.9706357000000001</v>
-      </c>
-      <c r="C70">
         <v>-0.0002867794811386437</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43616</v>
       </c>
       <c r="B71">
-        <v>1.0017496</v>
-      </c>
-      <c r="C71">
         <v>0.01578876298648191</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43646</v>
       </c>
       <c r="B72">
-        <v>1.031271</v>
-      </c>
-      <c r="C72">
         <v>0.01474779862576203</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43677</v>
       </c>
       <c r="B73">
-        <v>1.0448075</v>
-      </c>
-      <c r="C73">
         <v>0.006664054180855361</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43708</v>
       </c>
       <c r="B74">
-        <v>1.0749572</v>
-      </c>
-      <c r="C74">
         <v>0.01474451751570749</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43738</v>
       </c>
       <c r="B75">
-        <v>1.0664511</v>
-      </c>
-      <c r="C75">
         <v>-0.004099409857706959</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43769</v>
       </c>
       <c r="B76">
-        <v>1.0822608</v>
-      </c>
-      <c r="C76">
         <v>0.007650652851161066</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43799</v>
       </c>
       <c r="B77">
-        <v>1.0675582</v>
-      </c>
-      <c r="C77">
         <v>-0.007060883055570955</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43830</v>
       </c>
       <c r="B78">
-        <v>1.0808705</v>
-      </c>
-      <c r="C78">
         <v>0.006438657929919378</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43861</v>
       </c>
       <c r="B79">
-        <v>1.083864</v>
-      </c>
-      <c r="C79">
         <v>0.001438580632480591</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43890</v>
       </c>
       <c r="B80">
-        <v>1.1081975</v>
-      </c>
-      <c r="C80">
         <v>0.01167710560765967</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43921</v>
       </c>
       <c r="B81">
-        <v>1.1123681</v>
-      </c>
-      <c r="C81">
         <v>0.001978277651880189</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43951</v>
       </c>
       <c r="B82">
-        <v>1.1380619</v>
-      </c>
-      <c r="C82">
         <v>0.01216350502547359</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43982</v>
       </c>
       <c r="B83">
-        <v>1.1171982</v>
-      </c>
-      <c r="C83">
         <v>-0.009758230105498811</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44012</v>
       </c>
       <c r="B84">
-        <v>1.1421194</v>
-      </c>
-      <c r="C84">
         <v>0.01177083940464341</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44043</v>
       </c>
       <c r="B85">
-        <v>1.1619515</v>
-      </c>
-      <c r="C85">
         <v>0.009258167401873019</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44074</v>
       </c>
       <c r="B86">
-        <v>1.1936504</v>
-      </c>
-      <c r="C86">
         <v>0.01466216980353185</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44104</v>
       </c>
       <c r="B87">
-        <v>1.1907494</v>
-      </c>
-      <c r="C87">
         <v>-0.001322453204029239</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44135</v>
       </c>
       <c r="B88">
-        <v>1.2233336</v>
-      </c>
-      <c r="C88">
         <v>0.01487354053366396</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>44165</v>
       </c>
       <c r="B89">
-        <v>1.2274936</v>
-      </c>
-      <c r="C89">
-        <v>0.001871064243350595</v>
+        <v>-0.005252248245607549</v>
       </c>
     </row>
   </sheetData>
